--- a/biology/Botanique/Œillet_de_pierre/Œillet_de_pierre.xlsx
+++ b/biology/Botanique/Œillet_de_pierre/Œillet_de_pierre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C5%92illet_de_pierre</t>
+          <t>Œillet_de_pierre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dianthus petraeus
 L'œillet de pierre (Dianthus petraeus) est une espèce de plantes herbacées du genre Dianthus et de la famille des Caryophyllaceae. On la trouve en Albanie, en Bulgarie, en Grèce, en Roumanie et dans les pays de l'ex-Yougoslavie.
